--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -291,27 +291,27 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">обществознание</t>
+          <t xml:space="preserve">математика</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">призер</t>
+          <t xml:space="preserve">участник</t>
         </is>
       </c>
       <c t="inlineStr" r="D3">
         <is>
-          <t xml:space="preserve">Тищенко</t>
+          <t xml:space="preserve">Гриневский</t>
         </is>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">Максим</t>
+          <t xml:space="preserve">Богдан</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">Владимирович</t>
+          <t xml:space="preserve">Максимович</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -322,14 +322,19 @@
       <c r="H3" s="65">
         <v>4</v>
       </c>
+      <c t="inlineStr" r="I3">
+        <is>
+          <t xml:space="preserve">З</t>
+        </is>
+      </c>
       <c t="inlineStr" r="L3">
         <is>
-          <t xml:space="preserve">Тищенко Максим Владимирович</t>
+          <t xml:space="preserve">Гриневский Богдан Максимович</t>
         </is>
       </c>
       <c t="inlineStr" r="M3">
         <is>
-          <t xml:space="preserve">обществознанию</t>
+          <t xml:space="preserve">математике</t>
         </is>
       </c>
     </row>
@@ -349,17 +354,17 @@
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t xml:space="preserve">Гриневский</t>
+          <t xml:space="preserve">Ивкова</t>
         </is>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">Богдан</t>
+          <t xml:space="preserve">Софья</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">Максимович</t>
+          <t xml:space="preserve">Кирилловна</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -377,7 +382,7 @@
       </c>
       <c t="inlineStr" r="L4">
         <is>
-          <t xml:space="preserve">Гриневский Богдан Максимович</t>
+          <t xml:space="preserve">Ивкова Софья Кирилловна</t>
         </is>
       </c>
       <c t="inlineStr" r="M4">
@@ -402,17 +407,17 @@
       </c>
       <c t="inlineStr" r="D5">
         <is>
-          <t xml:space="preserve">Ивкова</t>
+          <t xml:space="preserve">Кулешявичуте</t>
         </is>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">Софья</t>
+          <t xml:space="preserve">Эвелина</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">Кирилловна</t>
+          <t xml:space="preserve">Алексо</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -430,7 +435,7 @@
       </c>
       <c t="inlineStr" r="L5">
         <is>
-          <t xml:space="preserve">Ивкова Софья Кирилловна</t>
+          <t xml:space="preserve">Кулешявичуте Эвелина Алексо</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -455,17 +460,17 @@
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t xml:space="preserve">Кулешявичуте</t>
+          <t xml:space="preserve">Павленко</t>
         </is>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">Эвелина</t>
+          <t xml:space="preserve">Платон</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">Алексо</t>
+          <t xml:space="preserve">Евгеньевич</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -483,7 +488,7 @@
       </c>
       <c t="inlineStr" r="L6">
         <is>
-          <t xml:space="preserve">Кулешявичуте Эвелина Алексо</t>
+          <t xml:space="preserve">Павленко Платон Евгеньевич</t>
         </is>
       </c>
       <c t="inlineStr" r="M6">
@@ -508,17 +513,17 @@
       </c>
       <c t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">Павленко</t>
+          <t xml:space="preserve">Плехов</t>
         </is>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">Платон</t>
+          <t xml:space="preserve">Кирилл</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">Евгеньевич</t>
+          <t xml:space="preserve">Игоревич</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -536,7 +541,7 @@
       </c>
       <c t="inlineStr" r="L7">
         <is>
-          <t xml:space="preserve">Павленко Платон Евгеньевич</t>
+          <t xml:space="preserve">Плехов Кирилл Игоревич</t>
         </is>
       </c>
       <c t="inlineStr" r="M7">
@@ -551,7 +556,7 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">математика</t>
+          <t xml:space="preserve">литература</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
@@ -561,17 +566,17 @@
       </c>
       <c t="inlineStr" r="D8">
         <is>
-          <t xml:space="preserve">Плехов</t>
+          <t xml:space="preserve">Помельников</t>
         </is>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">Кирилл</t>
+          <t xml:space="preserve">Глеб</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">Игоревич</t>
+          <t xml:space="preserve">Александрович</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -589,12 +594,12 @@
       </c>
       <c t="inlineStr" r="L8">
         <is>
-          <t xml:space="preserve">Плехов Кирилл Игоревич</t>
+          <t xml:space="preserve">Помельников Глеб Александрович</t>
         </is>
       </c>
       <c t="inlineStr" r="M8">
         <is>
-          <t xml:space="preserve">математике</t>
+          <t xml:space="preserve">литературе</t>
         </is>
       </c>
     </row>
@@ -604,7 +609,7 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">литература</t>
+          <t xml:space="preserve">математика</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
@@ -614,17 +619,17 @@
       </c>
       <c t="inlineStr" r="D9">
         <is>
-          <t xml:space="preserve">Помельников</t>
+          <t xml:space="preserve">Почивалов</t>
         </is>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">Глеб</t>
+          <t xml:space="preserve">Демид</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">Александрович</t>
+          <t xml:space="preserve">Кириллович</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -642,12 +647,12 @@
       </c>
       <c t="inlineStr" r="L9">
         <is>
-          <t xml:space="preserve">Помельников Глеб Александрович</t>
+          <t xml:space="preserve">Почивалов Демид Кириллович</t>
         </is>
       </c>
       <c t="inlineStr" r="M9">
         <is>
-          <t xml:space="preserve">литературе</t>
+          <t xml:space="preserve">математике</t>
         </is>
       </c>
     </row>
@@ -667,17 +672,17 @@
       </c>
       <c t="inlineStr" r="D10">
         <is>
-          <t xml:space="preserve">Почивалов</t>
+          <t xml:space="preserve">Семерджян</t>
         </is>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">Демид</t>
+          <t xml:space="preserve">Каролина</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">Кириллович</t>
+          <t xml:space="preserve">Гайковна</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -695,7 +700,7 @@
       </c>
       <c t="inlineStr" r="L10">
         <is>
-          <t xml:space="preserve">Почивалов Демид Кириллович</t>
+          <t xml:space="preserve">Семерджян Каролина Гайковна</t>
         </is>
       </c>
       <c t="inlineStr" r="M10">
@@ -720,17 +725,17 @@
       </c>
       <c t="inlineStr" r="D11">
         <is>
-          <t xml:space="preserve">Семерджян</t>
+          <t xml:space="preserve">Сидорова</t>
         </is>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">Каролина</t>
+          <t xml:space="preserve">Мария</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">Гайковна</t>
+          <t xml:space="preserve">Романова</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -748,7 +753,7 @@
       </c>
       <c t="inlineStr" r="L11">
         <is>
-          <t xml:space="preserve">Семерджян Каролина Гайковна</t>
+          <t xml:space="preserve">Сидорова Мария Романова</t>
         </is>
       </c>
       <c t="inlineStr" r="M11">
@@ -773,17 +778,17 @@
       </c>
       <c t="inlineStr" r="D12">
         <is>
-          <t xml:space="preserve">Сидорова</t>
+          <t xml:space="preserve">Соболева</t>
         </is>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">Мария</t>
+          <t xml:space="preserve">Оксана</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">Романова</t>
+          <t xml:space="preserve">Андреевна</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -801,7 +806,7 @@
       </c>
       <c t="inlineStr" r="L12">
         <is>
-          <t xml:space="preserve">Сидорова Мария Романова</t>
+          <t xml:space="preserve">Соболева Оксана Андреевна</t>
         </is>
       </c>
       <c t="inlineStr" r="M12">
@@ -816,7 +821,7 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">математика</t>
+          <t xml:space="preserve">фк-ю</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
@@ -826,17 +831,17 @@
       </c>
       <c t="inlineStr" r="D13">
         <is>
-          <t xml:space="preserve">Соболева</t>
+          <t xml:space="preserve">Сусанджан</t>
         </is>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">Оксана</t>
+          <t xml:space="preserve">Артур</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">Андреевна</t>
+          <t xml:space="preserve">Юрьевич</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -854,12 +859,12 @@
       </c>
       <c t="inlineStr" r="L13">
         <is>
-          <t xml:space="preserve">Соболева Оксана Андреевна</t>
+          <t xml:space="preserve">Сусанджан Артур Юрьевич</t>
         </is>
       </c>
       <c t="inlineStr" r="M13">
         <is>
-          <t xml:space="preserve">математике</t>
+          <t xml:space="preserve">физической культуре</t>
         </is>
       </c>
     </row>
@@ -869,7 +874,7 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">фк-ю</t>
+          <t xml:space="preserve">математика</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
@@ -879,17 +884,17 @@
       </c>
       <c t="inlineStr" r="D14">
         <is>
-          <t xml:space="preserve">Сусанджан</t>
+          <t xml:space="preserve">Тимохин</t>
         </is>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">Артур</t>
+          <t xml:space="preserve">Дмитрий</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">Юрьевич</t>
+          <t xml:space="preserve">Денисович</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -907,12 +912,12 @@
       </c>
       <c t="inlineStr" r="L14">
         <is>
-          <t xml:space="preserve">Сусанджан Артур Юрьевич</t>
+          <t xml:space="preserve">Тимохин Дмитрий Денисович</t>
         </is>
       </c>
       <c t="inlineStr" r="M14">
         <is>
-          <t xml:space="preserve">физической культуре</t>
+          <t xml:space="preserve">математике</t>
         </is>
       </c>
     </row>
@@ -932,17 +937,17 @@
       </c>
       <c t="inlineStr" r="D15">
         <is>
-          <t xml:space="preserve">Тимохин</t>
+          <t xml:space="preserve">Шикота</t>
         </is>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">Дмитрий</t>
+          <t xml:space="preserve">Кристина</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">Денисович</t>
+          <t xml:space="preserve">Игоревна</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -960,7 +965,7 @@
       </c>
       <c t="inlineStr" r="L15">
         <is>
-          <t xml:space="preserve">Тимохин Дмитрий Денисович</t>
+          <t xml:space="preserve">Шикота Кристина Игоревна</t>
         </is>
       </c>
       <c t="inlineStr" r="M15">
@@ -975,7 +980,7 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">математика</t>
+          <t xml:space="preserve">литература</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
@@ -985,17 +990,17 @@
       </c>
       <c t="inlineStr" r="D16">
         <is>
-          <t xml:space="preserve">Шикота</t>
+          <t xml:space="preserve">Юревич</t>
         </is>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">Кристина</t>
+          <t xml:space="preserve">Матвей</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">Игоревна</t>
+          <t xml:space="preserve">Евгеньевич</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -1013,12 +1018,12 @@
       </c>
       <c t="inlineStr" r="L16">
         <is>
-          <t xml:space="preserve">Шикота Кристина Игоревна</t>
+          <t xml:space="preserve">Юревич Матвей Евгеньевич</t>
         </is>
       </c>
       <c t="inlineStr" r="M16">
         <is>
-          <t xml:space="preserve">математике</t>
+          <t xml:space="preserve">литературе</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1033,7 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">литература</t>
+          <t xml:space="preserve">математика</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
@@ -1071,7 +1076,7 @@
       </c>
       <c t="inlineStr" r="M17">
         <is>
-          <t xml:space="preserve">литературе</t>
+          <t xml:space="preserve">математике</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1086,27 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">математика</t>
+          <t xml:space="preserve">фк-ю</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">участник</t>
+          <t xml:space="preserve">призер</t>
         </is>
       </c>
       <c t="inlineStr" r="D18">
         <is>
-          <t xml:space="preserve">Юревич</t>
+          <t xml:space="preserve">Рябцев</t>
         </is>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">Матвей</t>
+          <t xml:space="preserve">Леонид</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">Евгеньевич</t>
+          <t xml:space="preserve">Олегович</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1114,17 +1119,17 @@
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">З</t>
+          <t xml:space="preserve">Л</t>
         </is>
       </c>
       <c t="inlineStr" r="L18">
         <is>
-          <t xml:space="preserve">Юревич Матвей Евгеньевич</t>
+          <t xml:space="preserve">Рябцев Леонид Олегович</t>
         </is>
       </c>
       <c t="inlineStr" r="M18">
         <is>
-          <t xml:space="preserve">математике</t>
+          <t xml:space="preserve">физической культуре</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1139,7 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">фк-ю</t>
+          <t xml:space="preserve">русский язык</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
@@ -1144,17 +1149,17 @@
       </c>
       <c t="inlineStr" r="D19">
         <is>
-          <t xml:space="preserve">Рябцев</t>
+          <t xml:space="preserve">Рябцева</t>
         </is>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">Леонид</t>
+          <t xml:space="preserve">Полина</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">Олегович</t>
+          <t xml:space="preserve">Олеговна</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1172,12 +1177,12 @@
       </c>
       <c t="inlineStr" r="L19">
         <is>
-          <t xml:space="preserve">Рябцев Леонид Олегович</t>
+          <t xml:space="preserve">Рябцева Полина Олеговна</t>
         </is>
       </c>
       <c t="inlineStr" r="M19">
         <is>
-          <t xml:space="preserve">физической культуре</t>
+          <t xml:space="preserve">русскому языку</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1192,27 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">русский язык</t>
+          <t xml:space="preserve">литература</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">призер</t>
+          <t xml:space="preserve">участник</t>
         </is>
       </c>
       <c t="inlineStr" r="D20">
         <is>
-          <t xml:space="preserve">Рябцева</t>
+          <t xml:space="preserve">Майсак</t>
         </is>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">Полина</t>
+          <t xml:space="preserve">Алексей</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">Олеговна</t>
+          <t xml:space="preserve">Даниилович</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1225,12 +1230,12 @@
       </c>
       <c t="inlineStr" r="L20">
         <is>
-          <t xml:space="preserve">Рябцева Полина Олеговна</t>
+          <t xml:space="preserve">Майсак Алексей Даниилович</t>
         </is>
       </c>
       <c t="inlineStr" r="M20">
         <is>
-          <t xml:space="preserve">русскому языку</t>
+          <t xml:space="preserve">литературе</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1245,7 @@
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">литература</t>
+          <t xml:space="preserve">математика</t>
         </is>
       </c>
       <c t="inlineStr" r="C21">
@@ -1283,7 +1288,7 @@
       </c>
       <c t="inlineStr" r="M21">
         <is>
-          <t xml:space="preserve">литературе</t>
+          <t xml:space="preserve">математике</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1308,17 @@
       </c>
       <c t="inlineStr" r="D22">
         <is>
-          <t xml:space="preserve">Майсак</t>
+          <t xml:space="preserve">Рябцев</t>
         </is>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">Алексей</t>
+          <t xml:space="preserve">Леонид</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">Даниилович</t>
+          <t xml:space="preserve">Олегович</t>
         </is>
       </c>
       <c t="inlineStr" r="G22">
@@ -1331,7 +1336,7 @@
       </c>
       <c t="inlineStr" r="L22">
         <is>
-          <t xml:space="preserve">Майсак Алексей Даниилович</t>
+          <t xml:space="preserve">Рябцев Леонид Олегович</t>
         </is>
       </c>
       <c t="inlineStr" r="M22">
@@ -1346,7 +1351,7 @@
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">математика</t>
+          <t xml:space="preserve">литература</t>
         </is>
       </c>
       <c t="inlineStr" r="C23">
@@ -1356,17 +1361,17 @@
       </c>
       <c t="inlineStr" r="D23">
         <is>
-          <t xml:space="preserve">Рябцев</t>
+          <t xml:space="preserve">Рябцева</t>
         </is>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">Леонид</t>
+          <t xml:space="preserve">Полина</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">Олегович</t>
+          <t xml:space="preserve">Олеговна</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
@@ -1384,12 +1389,12 @@
       </c>
       <c t="inlineStr" r="L23">
         <is>
-          <t xml:space="preserve">Рябцев Леонид Олегович</t>
+          <t xml:space="preserve">Рябцева Полина Олеговна</t>
         </is>
       </c>
       <c t="inlineStr" r="M23">
         <is>
-          <t xml:space="preserve">математике</t>
+          <t xml:space="preserve">литературе</t>
         </is>
       </c>
     </row>
@@ -1399,27 +1404,27 @@
       </c>
       <c t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">литература</t>
+          <t xml:space="preserve">обществознание</t>
         </is>
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">участник</t>
+          <t xml:space="preserve">победитель</t>
         </is>
       </c>
       <c t="inlineStr" r="D24">
         <is>
-          <t xml:space="preserve">Рябцева</t>
+          <t xml:space="preserve">Волгина</t>
         </is>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">Полина</t>
+          <t xml:space="preserve">Дарья</t>
         </is>
       </c>
       <c t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">Олеговна</t>
+          <t xml:space="preserve">Сергеевна</t>
         </is>
       </c>
       <c t="inlineStr" r="G24">
@@ -1432,17 +1437,17 @@
       </c>
       <c t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">Л</t>
+          <t xml:space="preserve">М</t>
         </is>
       </c>
       <c t="inlineStr" r="L24">
         <is>
-          <t xml:space="preserve">Рябцева Полина Олеговна</t>
+          <t xml:space="preserve">Волгина Дарья Сергеевна</t>
         </is>
       </c>
       <c t="inlineStr" r="M24">
         <is>
-          <t xml:space="preserve">литературе</t>
+          <t xml:space="preserve">обществознанию</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1457,7 @@
       </c>
       <c t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">обществознание</t>
+          <t xml:space="preserve">технология кд</t>
         </is>
       </c>
       <c t="inlineStr" r="C25">
@@ -1495,7 +1500,7 @@
       </c>
       <c t="inlineStr" r="M25">
         <is>
-          <t xml:space="preserve">обществознанию</t>
+          <t xml:space="preserve">технологии (КД)</t>
         </is>
       </c>
     </row>
@@ -1515,17 +1520,17 @@
       </c>
       <c t="inlineStr" r="D26">
         <is>
-          <t xml:space="preserve">Волгина</t>
+          <t xml:space="preserve">Макарова</t>
         </is>
       </c>
       <c t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">Дарья</t>
+          <t xml:space="preserve">Анна</t>
         </is>
       </c>
       <c t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">Сергеевна</t>
+          <t xml:space="preserve">Константиновна</t>
         </is>
       </c>
       <c t="inlineStr" r="G26">
@@ -1543,7 +1548,7 @@
       </c>
       <c t="inlineStr" r="L26">
         <is>
-          <t xml:space="preserve">Волгина Дарья Сергеевна</t>
+          <t xml:space="preserve">Макарова Анна Константиновна</t>
         </is>
       </c>
       <c t="inlineStr" r="M26">
@@ -1558,7 +1563,7 @@
       </c>
       <c t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">технология кд</t>
+          <t xml:space="preserve">математика</t>
         </is>
       </c>
       <c t="inlineStr" r="C27">
@@ -1568,17 +1573,17 @@
       </c>
       <c t="inlineStr" r="D27">
         <is>
-          <t xml:space="preserve">Макарова</t>
+          <t xml:space="preserve">Проскуряков</t>
         </is>
       </c>
       <c t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">Анна</t>
+          <t xml:space="preserve">Максим</t>
         </is>
       </c>
       <c t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">Константиновна</t>
+          <t xml:space="preserve">Игоревич</t>
         </is>
       </c>
       <c t="inlineStr" r="G27">
@@ -1596,12 +1601,12 @@
       </c>
       <c t="inlineStr" r="L27">
         <is>
-          <t xml:space="preserve">Макарова Анна Константиновна</t>
+          <t xml:space="preserve">Проскуряков Максим Игоревич</t>
         </is>
       </c>
       <c t="inlineStr" r="M27">
         <is>
-          <t xml:space="preserve">технологии (КД)</t>
+          <t xml:space="preserve">математике</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1616,7 @@
       </c>
       <c t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">математика</t>
+          <t xml:space="preserve">английский</t>
         </is>
       </c>
       <c t="inlineStr" r="C28">
@@ -1621,17 +1626,17 @@
       </c>
       <c t="inlineStr" r="D28">
         <is>
-          <t xml:space="preserve">Проскуряков</t>
+          <t xml:space="preserve">Суслова</t>
         </is>
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">Максим</t>
+          <t xml:space="preserve">Софья</t>
         </is>
       </c>
       <c t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">Игоревич</t>
+          <t xml:space="preserve">Алексеевна</t>
         </is>
       </c>
       <c t="inlineStr" r="G28">
@@ -1649,12 +1654,12 @@
       </c>
       <c t="inlineStr" r="L28">
         <is>
-          <t xml:space="preserve">Проскуряков Максим Игоревич</t>
+          <t xml:space="preserve">Суслова Софья Алексеевна</t>
         </is>
       </c>
       <c t="inlineStr" r="M28">
         <is>
-          <t xml:space="preserve">математике</t>
+          <t xml:space="preserve">английскому языку</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1669,7 @@
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">английский</t>
+          <t xml:space="preserve">мхк</t>
         </is>
       </c>
       <c t="inlineStr" r="C29">
@@ -1674,17 +1679,17 @@
       </c>
       <c t="inlineStr" r="D29">
         <is>
-          <t xml:space="preserve">Суслова</t>
+          <t xml:space="preserve">Тищенко</t>
         </is>
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">Софья</t>
+          <t xml:space="preserve">Милана</t>
         </is>
       </c>
       <c t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">Алексеевна</t>
+          <t xml:space="preserve">Владимировна</t>
         </is>
       </c>
       <c t="inlineStr" r="G29">
@@ -1702,12 +1707,12 @@
       </c>
       <c t="inlineStr" r="L29">
         <is>
-          <t xml:space="preserve">Суслова Софья Алексеевна</t>
+          <t xml:space="preserve">Тищенко Милана Владимировна</t>
         </is>
       </c>
       <c t="inlineStr" r="M29">
         <is>
-          <t xml:space="preserve">английскому языку</t>
+          <t xml:space="preserve">МХК</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1722,27 @@
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">мхк</t>
+          <t xml:space="preserve">литература</t>
         </is>
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">победитель</t>
+          <t xml:space="preserve">призер</t>
         </is>
       </c>
       <c t="inlineStr" r="D30">
         <is>
-          <t xml:space="preserve">Тищенко</t>
+          <t xml:space="preserve">Макарова</t>
         </is>
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">Милана</t>
+          <t xml:space="preserve">Анна</t>
         </is>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">Владимировна</t>
+          <t xml:space="preserve">Константиновна</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
@@ -1755,12 +1760,12 @@
       </c>
       <c t="inlineStr" r="L30">
         <is>
-          <t xml:space="preserve">Тищенко Милана Владимировна</t>
+          <t xml:space="preserve">Макарова Анна Константиновна</t>
         </is>
       </c>
       <c t="inlineStr" r="M30">
         <is>
-          <t xml:space="preserve">МХК</t>
+          <t xml:space="preserve">литературе</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1775,7 @@
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">литература</t>
+          <t xml:space="preserve">русский язык</t>
         </is>
       </c>
       <c t="inlineStr" r="C31">
@@ -1813,7 +1818,7 @@
       </c>
       <c t="inlineStr" r="M31">
         <is>
-          <t xml:space="preserve">литературе</t>
+          <t xml:space="preserve">русскому языку</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1828,7 @@
       </c>
       <c t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">русский язык</t>
+          <t xml:space="preserve">технология кд</t>
         </is>
       </c>
       <c t="inlineStr" r="C32">
@@ -1833,17 +1838,17 @@
       </c>
       <c t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">Макарова</t>
+          <t xml:space="preserve">Носова</t>
         </is>
       </c>
       <c t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">Анна</t>
+          <t xml:space="preserve">Виктория</t>
         </is>
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">Константиновна</t>
+          <t xml:space="preserve">Никитична</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
@@ -1861,12 +1866,12 @@
       </c>
       <c t="inlineStr" r="L32">
         <is>
-          <t xml:space="preserve">Макарова Анна Константиновна</t>
+          <t xml:space="preserve">Носова Виктория Никитична</t>
         </is>
       </c>
       <c t="inlineStr" r="M32">
         <is>
-          <t xml:space="preserve">русскому языку</t>
+          <t xml:space="preserve">технологии (КД)</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1881,7 @@
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">технология кд</t>
+          <t xml:space="preserve">английский</t>
         </is>
       </c>
       <c t="inlineStr" r="C33">
@@ -1886,17 +1891,17 @@
       </c>
       <c t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">Носова</t>
+          <t xml:space="preserve">Радион</t>
         </is>
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">Виктория</t>
+          <t xml:space="preserve">Ксения</t>
         </is>
       </c>
       <c t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">Никитична</t>
+          <t xml:space="preserve">Денисовна</t>
         </is>
       </c>
       <c t="inlineStr" r="G33">
@@ -1914,12 +1919,12 @@
       </c>
       <c t="inlineStr" r="L33">
         <is>
-          <t xml:space="preserve">Носова Виктория Никитична</t>
+          <t xml:space="preserve">Радион Ксения Денисовна</t>
         </is>
       </c>
       <c t="inlineStr" r="M33">
         <is>
-          <t xml:space="preserve">технологии (КД)</t>
+          <t xml:space="preserve">английскому языку</t>
         </is>
       </c>
     </row>
@@ -1939,17 +1944,17 @@
       </c>
       <c t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">Радион</t>
+          <t xml:space="preserve">Рябинин</t>
         </is>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">Ксения</t>
+          <t xml:space="preserve">Михаил</t>
         </is>
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">Денисовна</t>
+          <t xml:space="preserve">Сергеевич</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
@@ -1967,7 +1972,7 @@
       </c>
       <c t="inlineStr" r="L34">
         <is>
-          <t xml:space="preserve">Радион Ксения Денисовна</t>
+          <t xml:space="preserve">Рябинин Михаил Сергеевич</t>
         </is>
       </c>
       <c t="inlineStr" r="M34">
@@ -1982,7 +1987,7 @@
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">английский</t>
+          <t xml:space="preserve">литература</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
@@ -1992,17 +1997,17 @@
       </c>
       <c t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">Рябинин</t>
+          <t xml:space="preserve">Суслова</t>
         </is>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">Михаил</t>
+          <t xml:space="preserve">Софья</t>
         </is>
       </c>
       <c t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">Сергеевич</t>
+          <t xml:space="preserve">Алексеевна</t>
         </is>
       </c>
       <c t="inlineStr" r="G35">
@@ -2020,12 +2025,12 @@
       </c>
       <c t="inlineStr" r="L35">
         <is>
-          <t xml:space="preserve">Рябинин Михаил Сергеевич</t>
+          <t xml:space="preserve">Суслова Софья Алексеевна</t>
         </is>
       </c>
       <c t="inlineStr" r="M35">
         <is>
-          <t xml:space="preserve">английскому языку</t>
+          <t xml:space="preserve">литературе</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2040,7 @@
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">литература</t>
+          <t xml:space="preserve">русский язык</t>
         </is>
       </c>
       <c t="inlineStr" r="C36">
@@ -2078,7 +2083,7 @@
       </c>
       <c t="inlineStr" r="M36">
         <is>
-          <t xml:space="preserve">литературе</t>
+          <t xml:space="preserve">русскому языку</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2093,7 @@
       </c>
       <c t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">русский язык</t>
+          <t xml:space="preserve">обществознание</t>
         </is>
       </c>
       <c t="inlineStr" r="C37">
@@ -2098,17 +2103,17 @@
       </c>
       <c t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">Суслова</t>
+          <t xml:space="preserve">Тищенко</t>
         </is>
       </c>
       <c t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">Софья</t>
+          <t xml:space="preserve">Милана</t>
         </is>
       </c>
       <c t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">Алексеевна</t>
+          <t xml:space="preserve">Владимировна</t>
         </is>
       </c>
       <c t="inlineStr" r="G37">
@@ -2126,12 +2131,12 @@
       </c>
       <c t="inlineStr" r="L37">
         <is>
-          <t xml:space="preserve">Суслова Софья Алексеевна</t>
+          <t xml:space="preserve">Тищенко Милана Владимировна</t>
         </is>
       </c>
       <c t="inlineStr" r="M37">
         <is>
-          <t xml:space="preserve">русскому языку</t>
+          <t xml:space="preserve">обществознанию</t>
         </is>
       </c>
     </row>
